--- a/merged_outlooks.xlsx
+++ b/merged_outlooks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Google Drive\R\BP stats review\bp-energy-outlook-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F0512-DEC8-40E3-8492-E58F379F75E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4EE1A4-02D4-491E-B9C3-624ABDA23114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2ACFC4BE-B55C-4C81-894C-2BDC260BF659}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2ACFC4BE-B55C-4C81-894C-2BDC260BF659}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="8" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t xml:space="preserve">Total Liquids Consumption^ </t>
   </si>
@@ -220,6 +220,15 @@
   <si>
     <t>Gas consumption</t>
   </si>
+  <si>
+    <t>2016 outlook</t>
+  </si>
+  <si>
+    <t>2017 outlook</t>
+  </si>
+  <si>
+    <t>2018 outlook</t>
+  </si>
 </sst>
 </file>
 
@@ -227,10 +236,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="175" formatCode="[&gt;0.05]0.0;[=0]\-;\^"/>
-    <numFmt numFmtId="176" formatCode="[&lt;-0.0005]\-0.0%;[&gt;0.0005]0.0%;#\♦"/>
-    <numFmt numFmtId="177" formatCode="[&gt;0.05]0;[=0]\-;\^"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="[&gt;0.05]0.0;[=0]\-;\^"/>
+    <numFmt numFmtId="167" formatCode="[&lt;-0.0005]\-0.0%;[&gt;0.0005]0.0%;#\♦"/>
+    <numFmt numFmtId="168" formatCode="[&gt;0.05]0;[=0]\-;\^"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -704,13 +713,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="27" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -718,14 +727,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="27" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -738,16 +747,16 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="174" formatCode="[&gt;0.0005]0.0%;[=0]\-;#\♦"/>
+      <numFmt numFmtId="169" formatCode="[&gt;0.0005]0.0%;[=0]\-;#\♦"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="[&lt;-0.0005]\-0.0%;[=0]\-;#\♦"/>
+      <numFmt numFmtId="170" formatCode="[&lt;-0.0005]\-0.0%;[=0]\-;#\♦"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="174" formatCode="[&gt;0.0005]0.0%;[=0]\-;#\♦"/>
+      <numFmt numFmtId="169" formatCode="[&gt;0.0005]0.0%;[=0]\-;#\♦"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="[&lt;-0.0005]\-0.0%;[=0]\-;#\♦"/>
+      <numFmt numFmtId="170" formatCode="[&lt;-0.0005]\-0.0%;[=0]\-;#\♦"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -954,7 +963,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>2016 outlook</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1059,7 +1068,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017</c:v>
+                  <c:v>2017 outlook</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1164,7 +1173,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2018</c:v>
+                  <c:v>2018 outlook</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2830,7 +2839,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{23752513-6A97-4C3D-A7DE-11BED12C7DED}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3169,8 +3178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E08E4A-88D5-40E6-9F04-59A51248B74D}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3264,8 +3273,8 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3">
-        <v>2016</v>
+      <c r="A3" t="s">
+        <v>48</v>
       </c>
       <c r="G3" s="100">
         <f>G2</f>
@@ -3291,8 +3300,8 @@
       <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4">
-        <v>2017</v>
+      <c r="A4" t="s">
+        <v>49</v>
       </c>
       <c r="G4" s="100">
         <f t="shared" ref="G4:G7" si="0">G3</f>
@@ -3318,8 +3327,8 @@
       <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5">
-        <v>2018</v>
+      <c r="A5" t="s">
+        <v>50</v>
       </c>
       <c r="G5" s="100">
         <f t="shared" si="0"/>
@@ -4477,43 +4486,43 @@
         <v>1965</v>
       </c>
       <c r="C11" s="74">
-        <f>B11+5</f>
+        <f t="shared" ref="C11:L11" si="1">B11+5</f>
         <v>1970</v>
       </c>
       <c r="D11" s="74">
-        <f>C11+5</f>
+        <f t="shared" si="1"/>
         <v>1975</v>
       </c>
       <c r="E11" s="74">
-        <f>D11+5</f>
+        <f t="shared" si="1"/>
         <v>1980</v>
       </c>
       <c r="F11" s="74">
-        <f>E11+5</f>
+        <f t="shared" si="1"/>
         <v>1985</v>
       </c>
       <c r="G11" s="74">
-        <f>F11+5</f>
+        <f t="shared" si="1"/>
         <v>1990</v>
       </c>
       <c r="H11" s="74">
-        <f>G11+5</f>
+        <f t="shared" si="1"/>
         <v>1995</v>
       </c>
       <c r="I11" s="74">
-        <f>H11+5</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J11" s="74">
-        <f>I11+5</f>
+        <f t="shared" si="1"/>
         <v>2005</v>
       </c>
       <c r="K11" s="74">
-        <f>J11+5</f>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
       <c r="L11" s="74">
-        <f>K11+5</f>
+        <f t="shared" si="1"/>
         <v>2015</v>
       </c>
       <c r="M11" s="74">
@@ -4532,47 +4541,47 @@
         <v>1528.2290557366118</v>
       </c>
       <c r="C12" s="107">
-        <f t="shared" ref="C12:M12" si="1">HLOOKUP(C11,C2:BH3,2,FALSE)</f>
+        <f t="shared" ref="C12:M12" si="2">HLOOKUP(C11,C2:BH3,2,FALSE)</f>
         <v>2256.1364289816306</v>
       </c>
       <c r="D12" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2694.4168881321557</v>
       </c>
       <c r="E12" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2984.1707409239284</v>
       </c>
       <c r="F12" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2822.486004505965</v>
       </c>
       <c r="G12" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3147.3882066193628</v>
       </c>
       <c r="H12" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3287.3888552026951</v>
       </c>
       <c r="I12" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3568.3189261012458</v>
       </c>
       <c r="J12" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3898.6556295730265</v>
       </c>
       <c r="K12" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3997.9151786095454</v>
       </c>
       <c r="L12" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4226.2569548442962</v>
       </c>
       <c r="M12" s="107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4445.2169893246746</v>
       </c>
       <c r="R12" s="107"/>
@@ -4588,47 +4597,47 @@
         <v>542.02914267772076</v>
       </c>
       <c r="C13" s="74">
-        <f t="shared" ref="C13:M13" si="2">HLOOKUP(C11,C5:BH7,3,FALSE)</f>
+        <f t="shared" ref="C13:M13" si="3">HLOOKUP(C11,C5:BH7,3,FALSE)</f>
         <v>826.72327929842993</v>
       </c>
       <c r="D13" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1002.6719302381023</v>
       </c>
       <c r="E13" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1224.2465290781422</v>
       </c>
       <c r="F13" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1398.1852462945221</v>
       </c>
       <c r="G13" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1675.3585990039173</v>
       </c>
       <c r="H13" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1815.0084843377058</v>
       </c>
       <c r="I13" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2063.6171849777948</v>
       </c>
       <c r="J13" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2361.4700310199933</v>
       </c>
       <c r="K13" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2717.6905251532116</v>
       </c>
       <c r="L13" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2990.5496910925804</v>
       </c>
       <c r="M13" s="74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3378.5413706435893</v>
       </c>
     </row>
